--- a/vst/xxbmld/cim.xlsx
+++ b/vst/xxbmld/cim.xlsx
@@ -97,10 +97,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>~</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -113,16 +109,37 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>文档格式:以逗号分隔的文本文件(.csv)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>父料品,原子件料品,实际用子件料品,用量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxbmld.p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>BOM</t>
+      <t>W</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BOM载</t>
     </r>
     <r>
       <rPr>
@@ -133,7 +150,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>导入[</t>
+      <t>入[</t>
     </r>
     <r>
       <rPr>
@@ -147,18 +164,6 @@
       <t>C]</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档格式:以逗号分隔的文本文件(.csv)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>父料品,原子件料品,实际用子件料品,用量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxbmld.p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -203,13 +208,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="明朝"/>
@@ -581,6 +579,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1169,23 +1175,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1224,7 +1230,61 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1233,173 +1293,125 @@
     <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="38" fontId="10" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="38" fontId="9" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="50" borderId="12" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="10" fontId="9" fillId="50" borderId="12" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="55" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="55" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="57" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="57" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1408,183 +1420,177 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="58" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="58" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="40" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="58" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="40" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1611,10 +1617,10 @@
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1">
@@ -2078,7 +2084,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2596,259 +2602,259 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10" t="s">
-        <v>26</v>
+      <c r="A5" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
+      <c r="C5" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>23</v>
+      <c r="E5" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
